--- a/data/hotels_by_city/Dallas/Dallas_shard_249.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_249.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>randy022</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Outstanding customer service right as you enter the door from Manager Sonyette.Hotel is extremely clean and modern. Excellent bar with plenty to choose from along with great TVs to watch sports while winding down. Cannot say enough about the service we received and how we felt our business was very important to them!More</t>
   </si>
   <si>
+    <t>Fletcher D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r583506833-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>After a long tiring drive we were greeted by Geneva. Her bubbly personality and smile was so welcoming.  Geneva even went above and beyond with our special circumstances to make our stay wonderful. Jennifer was so kind when she attended to our room. She really is a people person, and we spoke quite often.  Jennifer really wanted to make sure we had everything in our room.More</t>
   </si>
   <si>
+    <t>Ryan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r580734636-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Less then a week prior to a large event reservation was cancelled due to "maintence issues" (AKA overbooking). Naturally the only rooms left in town were substandard and miles away from anything.Management was unashamedly indifferent to the tremendous inconvience they forced upon a dozen or so loyal customers. Compensation  for said transgressions was not only paltry, Fairfield Inn (Marriot) actually went back on their word and refused to  issue Marriot reward points after promising to do so. Worst customer service experience I have ever recieved in the hotel hospitality industry. More</t>
   </si>
   <si>
+    <t>Timothy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r580191510-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>I can't say enough great things about the complete staff on how y'all treated my 10 guests for our Son's graduation affair. I highly recommend staying at least two nights and can't wait to return. Beautiful new hotel and greatest bartender ever. Heaney's from NJ.More</t>
   </si>
   <si>
+    <t>Chase P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r579475519-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>This hotel is a good hotel for enjoying downtown Ft. Worth. It is a little further from Sundance square than other hotels but the price was good for the area its in. The valet parking seems unnecessary as they pull your car 20 ft forward and park it under the hotel. For that, it should be $15 instead of $30.Lots of space for a family of four to enjoy the room.More</t>
   </si>
   <si>
+    <t>serwin99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r577252209-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -288,6 +306,9 @@
     <t>Booked 2 rooms for a Saturday night. 2nd floor patio was a cool place to hand out. Rooms were nice and comfortable and staff was excellent. Great location close to everything in downtown Fort Worth. Will definitely be backMore</t>
   </si>
   <si>
+    <t>Dana M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r577137882-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>I would first like to say that my experience with this hotel was the best ever. I would like to first state that the staff was on top of their game. Anything I needed was taken care of. The room was clean and well stocked. The hotel was in a convenient location to everything. This hotel cant be beat..More</t>
   </si>
   <si>
+    <t>gzau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r575965862-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>The Fairfield inn is right next to the convention center. The hotel is nice alright the entrance is a bit strange just go up the ramp on the front of the building. Rooms are standard and I had a huge room as it was for handicapped. They provide free breakfast which was only ok. Staff was helpful and friendly. Stay here if you are going to a tradeshow at the convention center</t>
   </si>
   <si>
+    <t>cml21</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r574562113-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>This hotel has a great location right in the middle of Ft. Worth, walking distance to other hotels, the convention center and shops/restaurants. The hotel is new so the rooms are very nice and updated. There is a large bar area that serves limited food items as well. The staff was very friendly and went out of their way to say hello or check in on how things were going with my stay.More</t>
   </si>
   <si>
+    <t>drqarlington</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r573506943-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>Stayed 1 night to attend a wedding downtown.  The hotel appears to be very new, rooms are nice, clean hotel overall.  Has a bar area and serves a free breakfast!Only downside is the parking options are limited to valet if you need in/out access to your car.  The hotel staff did a great job when I inquired about parking to let me know what my options were. We stayed in a “suite” which was spacious, surprisingly not a lot of windows though.Overall I would return or recommend to anyone looking for a nice hotel in Fort Worth.More</t>
   </si>
   <si>
+    <t>Crecia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r573194149-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>This hotel stay was one of the best I've ever experienced. The location of the hotel was great; in the walking distance of historical sites and restaurants. The remodeled hotel made wise choices in use of space and guest conveniences. The hotel was clean and well appointed. Staff were friendly, accommodating, and accountable from check-in to checkout. My room was facing the street, but sound proofed enough not to be bothered by noise. The bathroom was huge with an amazing walk-in shower. The hotel provided cosmetic cloths, which is a must-have as a traveling woman. There are two things I would recommend to improve the guest experience: 1) Add hooks behind the bathroom door so that one can hang up their robe or other items while showering; and 2) Improve the complimentary breakfast; the food was not too tasty. My experience and those of my fellow business travelers were so positive that we're considering having a larger business meeting at the hotel in the future.More</t>
   </si>
   <si>
+    <t>frenchrum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r572310204-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>I live north of Dallas and needed to stay near a friend's hotel for her b-day weekend in Fort Worth and chose the Fairfield.  It was the perfect location and really better than I expected.  I loved the decor of the reception and bar.  Very Instagrammable.  Our bartender was great and made us some killer margaritas. Service was great at check-in, bar, check-out - personable and friendly.  The room was clean and the bed and pillows were very comfortable.  Nice big TV.  Room coffee was meh but I enjoyed breakfast (eggs, sausage, make your own waffle {really good}).  Valet is expensive but it's downtown... pretty much expected.</t>
   </si>
   <si>
+    <t>ajgardner93</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r570902461-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -406,6 +445,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hotel was great!  Drinks were excellent and the service was over the top!  The hotel is within walking distance for everything downtown,  great views from the rooms. Can't wait to stay there for the weekend again in the near future. </t>
+  </si>
+  <si>
+    <t>AMHarvie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r565367276-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
@@ -430,6 +472,9 @@
 There is free breakfast in the morning until 10 am. They usually have scrambled eggs and cheese omelettes,...I stayed here while I was on business in Fort Worth. It is conveniently located right in downtown and you can walk to many restaurants, shops and attractions. The hotel itself is nicely decorated and it looks very new. I like the lounge in the lobby and the bar is modern. The reservation staff and the bar staff is always extremely nice and helpful. They always greet me when I come in and wish me a nice day when I leave. They have a small shop in the lobby for drinks, snacks and some sundries. However, there is an annoying smell that permeates the elevator area. It almost smells like pancake syrup. It’s not just in the morning— it’s all day long. The smell at times is overpowering. The room itself is a comfortable size with a king size bed and a desk if you need to do work. The closet is a little tight. There are two drawers in a dresser to put clothes away. The bed is very comfortable and there is a big screen television hanging on the wall for watching.  The bathroom is beautiful with a large, glass shower stall. The water pressure was disappointing, but I have found that in many hotels. There is a great working iron and board and a hair dryer in the room. There is free breakfast in the morning until 10 am. They usually have scrambled eggs and cheese omelettes, some sort of protein like bacon and or sausage, toast, bagels and other breakfast items. There is also coffee and juice. If I return to Fort Worth, I would definitely choose to stay at the Fairfield Inn Suites. More</t>
   </si>
   <si>
+    <t>Suzanne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r563044006-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -448,6 +493,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>Brenda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r560221922-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -463,6 +511,9 @@
     <t xml:space="preserve">This Fairfield Inn is the size of a boutique hotel at 5 stories.   It’s located directly across from the convention center and in walking distance to several good restaurants.    The rooms are on the small size but well appointed and very clean.   The fitness room is very good.   Breakfast is better than expected.   It’s not a luxury hotel but is close.   There is no parking so valet is a necessity.   The service is good.  </t>
   </si>
   <si>
+    <t>dagongster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r558324192-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -481,6 +532,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>EcoZip-Gavin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r558100417-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -496,6 +550,9 @@
     <t>This hotel has only recently opened. It's impressive on pretty much every conceivable front.  The rooms are large, spotless and comfortable.  The staff are universally friendly and go out of their way to help.  The inclusive breakfast is a real boon too. I was in town for 5 nights for a conference at the FW convention centre.  The hotel proved a great base and was considerably cheaper than the conference hotel. If I'm back in FW for work in the future I'll be back.</t>
   </si>
   <si>
+    <t>TXmomma99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r553636974-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -520,6 +577,9 @@
     <t>The only good things going for this place are the bar and the location.  Cleanliness is mediocre, rooms are very small, and lots of noise from outside. Staff was mixed.... a few people were very nice and helpful yet there were also a few that were not. However, the most disappointing part was paying well over$300 for a room and no breakfast at 9:30 in the morning when the state championships were happening. Thank goodness we were lucky that a coach demanded breakfast for her cheer squad or we would have been SOL. This place is not worth it. We'll try Omni next time.More</t>
   </si>
   <si>
+    <t>runrs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r549106508-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,6 +610,9 @@
     <t>This hotel was recently rebuilt from the cement structure out. They did a great job. Rooms are nice and roomy. Lobby bar with braedon the bartender was great. Location is perfect across street from convention center and close to downtown restaurants and bars. More</t>
   </si>
   <si>
+    <t>Kristin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r548677917-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -568,6 +631,9 @@
     <t>It's brand new, has cool decor and ambience, good breakfast, comfy beds. It's a great location right by the convention center. The only thing to be aware of is that the only option for parking is $28/night. More</t>
   </si>
   <si>
+    <t>James Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r547190846-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -584,6 +650,9 @@
   </si>
   <si>
     <t>We took a train trip with 2 of our grandkids. Our stay was great ,the hotel gave us a great rate and more importantly a clean modern room all of the staff were very friendly. John at the front desk was great , Thank you all . Merry Christmas to this great staff More</t>
+  </si>
+  <si>
+    <t>dnasaur</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r541374263-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
@@ -1115,43 +1184,47 @@
       <c r="A2" t="n">
         <v>66388</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136949</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1169,56 +1242,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66388</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136950</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -1234,56 +1311,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66388</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>3158</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1295,56 +1376,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66388</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>20777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1356,56 +1441,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66388</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>48336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1421,56 +1510,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66388</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1482,56 +1575,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66388</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>1581</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" t="s">
-        <v>85</v>
-      </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1547,56 +1644,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66388</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136951</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1610,50 +1711,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66388</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136952</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1669,56 +1774,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66388</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136953</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1730,56 +1839,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66388</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>46571</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1797,50 +1910,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66388</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136954</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1858,41 +1975,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66388</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136955</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
@@ -1911,50 +2032,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66388</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136956</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1968,50 +2093,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66388</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>9597</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2025,50 +2154,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66388</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>14326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="O17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2082,50 +2215,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66388</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136957</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2139,50 +2276,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66388</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136958</v>
+      </c>
+      <c r="C19" t="s">
+        <v>170</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="L19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>156</v>
       </c>
-      <c r="L19" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>141</v>
-      </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2202,50 +2343,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66388</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136959</v>
+      </c>
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2257,56 +2402,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66388</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>79811</v>
+      </c>
+      <c r="C21" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2318,56 +2467,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66388</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>865</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O22" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2379,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="X22" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66388</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>37182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2440,56 +2597,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="X23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66388</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136960</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2505,13 +2666,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="X24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="Y24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_249.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_249.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>STR#</t>
   </si>
@@ -147,48 +147,230 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>randy022</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r607417658-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>12492984</t>
+  </si>
+  <si>
+    <t>607417658</t>
+  </si>
+  <si>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>Great location and great staff.</t>
+  </si>
+  <si>
+    <t>My first visit.  Staff is professional, gracious, and welcoming.  Particularly, Geneva at front desk.  Room was comfortable and quiet.  They readily accommodated my changing schedule.  I also liked the bar and the breakfast arrangement.  I will stay again.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r605338937-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>605338937</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Great business hotel in central location</t>
+  </si>
+  <si>
+    <t>Stayed for a night on a business trip. Good location downtown. Staff was friendly, everything was clean. Very good exercise room and a nice breakfast. Air conditioning worked excellently which is always good in Texas. Great Marriott option in Ft Worth. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Stayed for a night on a business trip. Good location downtown. Staff was friendly, everything was clean. Very good exercise room and a nice breakfast. Air conditioning worked excellently which is always good in Texas. Great Marriott option in Ft Worth. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r604082833-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>604082833</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Perfect location, outstanding service</t>
+  </si>
+  <si>
+    <t>What a pleasure it was to stay at this property while on business in Fort Worth!  Located across the street from the federal building in Fort Worrh, it took me no more than 2 minutes to get to work.  Excellent restaurants are within a few minutes walk through a clean, safe, and upbeat downtown area. But there’s much more to recommend this hotel. It is without a doubt the most upscale Fairfield Inn I’ve stayed in, with amenities as a full bar and lounge area, immaculate appearance throughout, and a well above average breakfast buffet. Above all, the service was outstanding and on a par with much higher-end Marriotts. The reception desk is staffed with sharp, sophisticated personnel who greeted me daily by name and offered helpful suggestions and directions to local dining. I expect the best from Marriott, and this property delivers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Brett M, Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>What a pleasure it was to stay at this property while on business in Fort Worth!  Located across the street from the federal building in Fort Worrh, it took me no more than 2 minutes to get to work.  Excellent restaurants are within a few minutes walk through a clean, safe, and upbeat downtown area. But there’s much more to recommend this hotel. It is without a doubt the most upscale Fairfield Inn I’ve stayed in, with amenities as a full bar and lounge area, immaculate appearance throughout, and a well above average breakfast buffet. Above all, the service was outstanding and on a par with much higher-end Marriotts. The reception desk is staffed with sharp, sophisticated personnel who greeted me daily by name and offered helpful suggestions and directions to local dining. I expect the best from Marriott, and this property delivers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r601119263-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>601119263</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Nice Facility, Great Location, Dissapointing Check In Staff</t>
+  </si>
+  <si>
+    <t>My wife and I took the train to Fort Worth from Oklahoma City for our 21st anniversary.  I booked this room knowing it was close to good restaurants, things to do, etc.  
+The facility is in a great location, across the street from the convention center.  This is a busy, safe area.  The facility was both clean and had a more modern/ appropriate presentation.  Our room (balcony on the 3rd floor) had plenty of windows, natural light, and was very clean.  We were happy with the room.  
+The only issue we encountered was the check-in staff.  Upon checking in I mentioned we were there on our 21st anniversary and wanted to lounge and relax without our kids.  Check-in process was quick but the gentleman checking us in did not cover a single amenity, simply handed us keys and we were on our way with very little conversation.  I later asked a worker where to find the pool only to be informed there was not one onsite.
+We had brought swim suits and hoped to sit in the pool together, come to find out this facility does not have a pool.  I was disappointed I hadn't checked that when booking.  That was our entire plan was to eat a few places and to lay in the pool.  Now, given the footprint of the facility it is easy to see they couldn't fit a pool, I understand why.  
+However, upon checkout the...My wife and I took the train to Fort Worth from Oklahoma City for our 21st anniversary.  I booked this room knowing it was close to good restaurants, things to do, etc.  The facility is in a great location, across the street from the convention center.  This is a busy, safe area.  The facility was both clean and had a more modern/ appropriate presentation.  Our room (balcony on the 3rd floor) had plenty of windows, natural light, and was very clean.  We were happy with the room.  The only issue we encountered was the check-in staff.  Upon checking in I mentioned we were there on our 21st anniversary and wanted to lounge and relax without our kids.  Check-in process was quick but the gentleman checking us in did not cover a single amenity, simply handed us keys and we were on our way with very little conversation.  I later asked a worker where to find the pool only to be informed there was not one onsite.We had brought swim suits and hoped to sit in the pool together, come to find out this facility does not have a pool.  I was disappointed I hadn't checked that when booking.  That was our entire plan was to eat a few places and to lay in the pool.  Now, given the footprint of the facility it is easy to see they couldn't fit a pool, I understand why.  However, upon checkout the lady checking us out let us know we could have used the sister facilities pool by simply showing our key card.  We were SO disappointed this was not mentioned on check-in.  That was the bulk of our plan for this trip and we were NOT informed this was an option.  I simply thought this was something I had overlooked.  On check-out she did apologized that check-in was poor but it still made for a disappointing stay.The Breakdown:The Good: * Directly across from the convention center* Within walking distance of a lot of eating places* Clean, nice rooms* Included Breakfast* Nice Bar in the first levelThe Bad - * No Pool* Lacking StaffThe Takeaway - For Business this is a great hotel with close proximity to a lot of popular areas in Fort Worth including The Stockyard.  For a leisure weekend this is NOT a good suggestion as there are other hotels in the area more suited for a relaxing weekend at the same price point.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Brett M, Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>My wife and I took the train to Fort Worth from Oklahoma City for our 21st anniversary.  I booked this room knowing it was close to good restaurants, things to do, etc.  
+The facility is in a great location, across the street from the convention center.  This is a busy, safe area.  The facility was both clean and had a more modern/ appropriate presentation.  Our room (balcony on the 3rd floor) had plenty of windows, natural light, and was very clean.  We were happy with the room.  
+The only issue we encountered was the check-in staff.  Upon checking in I mentioned we were there on our 21st anniversary and wanted to lounge and relax without our kids.  Check-in process was quick but the gentleman checking us in did not cover a single amenity, simply handed us keys and we were on our way with very little conversation.  I later asked a worker where to find the pool only to be informed there was not one onsite.
+We had brought swim suits and hoped to sit in the pool together, come to find out this facility does not have a pool.  I was disappointed I hadn't checked that when booking.  That was our entire plan was to eat a few places and to lay in the pool.  Now, given the footprint of the facility it is easy to see they couldn't fit a pool, I understand why.  
+However, upon checkout the...My wife and I took the train to Fort Worth from Oklahoma City for our 21st anniversary.  I booked this room knowing it was close to good restaurants, things to do, etc.  The facility is in a great location, across the street from the convention center.  This is a busy, safe area.  The facility was both clean and had a more modern/ appropriate presentation.  Our room (balcony on the 3rd floor) had plenty of windows, natural light, and was very clean.  We were happy with the room.  The only issue we encountered was the check-in staff.  Upon checking in I mentioned we were there on our 21st anniversary and wanted to lounge and relax without our kids.  Check-in process was quick but the gentleman checking us in did not cover a single amenity, simply handed us keys and we were on our way with very little conversation.  I later asked a worker where to find the pool only to be informed there was not one onsite.We had brought swim suits and hoped to sit in the pool together, come to find out this facility does not have a pool.  I was disappointed I hadn't checked that when booking.  That was our entire plan was to eat a few places and to lay in the pool.  Now, given the footprint of the facility it is easy to see they couldn't fit a pool, I understand why.  However, upon checkout the lady checking us out let us know we could have used the sister facilities pool by simply showing our key card.  We were SO disappointed this was not mentioned on check-in.  That was the bulk of our plan for this trip and we were NOT informed this was an option.  I simply thought this was something I had overlooked.  On check-out she did apologized that check-in was poor but it still made for a disappointing stay.The Breakdown:The Good: * Directly across from the convention center* Within walking distance of a lot of eating places* Clean, nice rooms* Included Breakfast* Nice Bar in the first levelThe Bad - * No Pool* Lacking StaffThe Takeaway - For Business this is a great hotel with close proximity to a lot of popular areas in Fort Worth including The Stockyard.  For a leisure weekend this is NOT a good suggestion as there are other hotels in the area more suited for a relaxing weekend at the same price point.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r599027537-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>599027537</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Great location, clean rooms, nice lobby</t>
+  </si>
+  <si>
+    <t>This hotel is in downtown, which is a great location.  Except for the parking! We circled the block twice as there was a vehicle blocking the sole entrance to the valet - there is no self parking.  We finally got into the valet and there wasn't an attendant and there were 2 cars behind us so we had no choice but to park ourselves.  The check in process was quick and easy, the room was small but clean and nice.  The bathroom was updated and had a large shower.  The hotel lobby was very modern and even better than the pictures.  Breakfast was included but we didn't get up to time to check it out.  Walking distance to great restaurants and attractions.  Our only issue was the valet.  The front desk was appalled that we parked ourselves even though we tried to explain how long we waited, that there were cars behind us - the line was out into the main road so we had to go into the parking garage.  The valet fee is $30 which seems steep but it is in downtown. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in downtown, which is a great location.  Except for the parking! We circled the block twice as there was a vehicle blocking the sole entrance to the valet - there is no self parking.  We finally got into the valet and there wasn't an attendant and there were 2 cars behind us so we had no choice but to park ourselves.  The check in process was quick and easy, the room was small but clean and nice.  The bathroom was updated and had a large shower.  The hotel lobby was very modern and even better than the pictures.  Breakfast was included but we didn't get up to time to check it out.  Walking distance to great restaurants and attractions.  Our only issue was the valet.  The front desk was appalled that we parked ourselves even though we tried to explain how long we waited, that there were cars behind us - the line was out into the main road so we had to go into the parking garage.  The valet fee is $30 which seems steep but it is in downtown. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r588604273-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>588604273</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We stayed here for a night and had an enjoyable stay. It was a Sunday so there wasn’t much going on downtown but regardless the hotel is nice. Free WiFi and breakfast which we didn’t partake in, so can’t comment on. Parking is charged of course as your downtown. The lobby was nice but always had a funny smell to me. One of the best perks about the rooms was that you could sign into your Netflix and Hulu accounts on the TV - great for business travellers who just want to relax. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>We stayed here for a night and had an enjoyable stay. It was a Sunday so there wasn’t much going on downtown but regardless the hotel is nice. Free WiFi and breakfast which we didn’t partake in, so can’t comment on. Parking is charged of course as your downtown. The lobby was nice but always had a funny smell to me. One of the best perks about the rooms was that you could sign into your Netflix and Hulu accounts on the TV - great for business travellers who just want to relax. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r586026630-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>586026630</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I had a lovely stay. I had the best sleep I've had in a long time. I got in late but the front desk person was friendly, and helped me out. The bed was real comfortable, and it was quiet. I was really impressed with everything, and I would consider going back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brett M, Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded June 14, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2018</t>
+  </si>
+  <si>
+    <t>I had a lovely stay. I had the best sleep I've had in a long time. I got in late but the front desk person was friendly, and helped me out. The bed was real comfortable, and it was quiet. I was really impressed with everything, and I would consider going back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r585370172-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>585370172</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Made a grumpy business traveler happy!</t>
+  </si>
+  <si>
+    <t>Had to go to Ft. Worth for business and wasn't happy about it. However, I was pleasantly surprised by this hotel. Rooms have very nice, new fixtures and amenities, and are very comfortable. All the staff are friendly, welcoming, and competent. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Had to go to Ft. Worth for business and wasn't happy about it. However, I was pleasantly surprised by this hotel. Rooms have very nice, new fixtures and amenities, and are very comfortable. All the staff are friendly, welcoming, and competent. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r583671693-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>583671693</t>
   </si>
   <si>
     <t>05/29/2018</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r583671693-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
-  </si>
-  <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>12492984</t>
-  </si>
-  <si>
-    <t>583671693</t>
-  </si>
-  <si>
     <t>Fairfield Inn Recent Stay Downtown FTW</t>
   </si>
   <si>
     <t>Outstanding customer service right as you enter the door from Manager Sonyette.Hotel is extremely clean and modern. Excellent bar with plenty to choose from along with great TVs to watch sports while winding down. Cannot say enough about the service we received and how we felt our business was very important to them!MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded today</t>
-  </si>
-  <si>
-    <t>Responded today</t>
+    <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
   </si>
   <si>
     <t>Outstanding customer service right as you enter the door from Manager Sonyette.Hotel is extremely clean and modern. Excellent bar with plenty to choose from along with great TVs to watch sports while winding down. Cannot say enough about the service we received and how we felt our business was very important to them!More</t>
   </si>
   <si>
-    <t>Fletcher D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r583506833-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -207,9 +389,6 @@
     <t>After a long tiring drive we were greeted by Geneva. Her bubbly personality and smile was so welcoming.  Geneva even went above and beyond with our special circumstances to make our stay wonderful. Jennifer was so kind when she attended to our room. She really is a people person, and we spoke quite often.  Jennifer really wanted to make sure we had everything in our room.More</t>
   </si>
   <si>
-    <t>Ryan R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r580734636-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -225,24 +404,15 @@
     <t>Less then a week prior to a large event reservation was cancelled due to "maintence issues" (AKA overbooking). Naturally the only rooms left in town were substandard and miles away from anything.Management was unashamedly indifferent to the tremendous inconvience they forced upon a dozen or so loyal customers. Compensation  for said transgressions was not only paltry, Fairfield Inn (Marriot) actually went back on their word and refused to  issue Marriot reward points after promising to do so. Worst customer service experience I have ever recieved in the hotel hospitality industry. MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded May 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2018</t>
   </si>
   <si>
     <t>Less then a week prior to a large event reservation was cancelled due to "maintence issues" (AKA overbooking). Naturally the only rooms left in town were substandard and miles away from anything.Management was unashamedly indifferent to the tremendous inconvience they forced upon a dozen or so loyal customers. Compensation  for said transgressions was not only paltry, Fairfield Inn (Marriot) actually went back on their word and refused to  issue Marriot reward points after promising to do so. Worst customer service experience I have ever recieved in the hotel hospitality industry. More</t>
   </si>
   <si>
-    <t>Timothy H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r580191510-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -261,9 +431,6 @@
     <t>I can't say enough great things about the complete staff on how y'all treated my 10 guests for our Son's graduation affair. I highly recommend staying at least two nights and can't wait to return. Beautiful new hotel and greatest bartender ever. Heaney's from NJ.More</t>
   </si>
   <si>
-    <t>Chase P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r579475519-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -282,9 +449,6 @@
     <t>This hotel is a good hotel for enjoying downtown Ft. Worth. It is a little further from Sundance square than other hotels but the price was good for the area its in. The valet parking seems unnecessary as they pull your car 20 ft forward and park it under the hotel. For that, it should be $15 instead of $30.Lots of space for a family of four to enjoy the room.More</t>
   </si>
   <si>
-    <t>serwin99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r577252209-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,9 +470,6 @@
     <t>Booked 2 rooms for a Saturday night. 2nd floor patio was a cool place to hand out. Rooms were nice and comfortable and staff was excellent. Great location close to everything in downtown Fort Worth. Will definitely be backMore</t>
   </si>
   <si>
-    <t>Dana M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r577137882-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -324,9 +485,6 @@
     <t>I would first like to say that my experience with this hotel was the best ever. I would like to first state that the staff was on top of their game. Anything I needed was taken care of. The room was clean and well stocked. The hotel was in a convenient location to everything. This hotel cant be beat..More</t>
   </si>
   <si>
-    <t>gzau</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r575965862-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -342,9 +500,6 @@
     <t>The Fairfield inn is right next to the convention center. The hotel is nice alright the entrance is a bit strange just go up the ramp on the front of the building. Rooms are standard and I had a huge room as it was for handicapped. They provide free breakfast which was only ok. Staff was helpful and friendly. Stay here if you are going to a tradeshow at the convention center</t>
   </si>
   <si>
-    <t>cml21</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r574562113-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,9 +521,6 @@
     <t>This hotel has a great location right in the middle of Ft. Worth, walking distance to other hotels, the convention center and shops/restaurants. The hotel is new so the rooms are very nice and updated. There is a large bar area that serves limited food items as well. The staff was very friendly and went out of their way to say hello or check in on how things were going with my stay.More</t>
   </si>
   <si>
-    <t>drqarlington</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r573506943-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -387,9 +539,6 @@
     <t>Stayed 1 night to attend a wedding downtown.  The hotel appears to be very new, rooms are nice, clean hotel overall.  Has a bar area and serves a free breakfast!Only downside is the parking options are limited to valet if you need in/out access to your car.  The hotel staff did a great job when I inquired about parking to let me know what my options were. We stayed in a “suite” which was spacious, surprisingly not a lot of windows though.Overall I would return or recommend to anyone looking for a nice hotel in Fort Worth.More</t>
   </si>
   <si>
-    <t>Crecia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r573194149-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -411,9 +560,6 @@
     <t>This hotel stay was one of the best I've ever experienced. The location of the hotel was great; in the walking distance of historical sites and restaurants. The remodeled hotel made wise choices in use of space and guest conveniences. The hotel was clean and well appointed. Staff were friendly, accommodating, and accountable from check-in to checkout. My room was facing the street, but sound proofed enough not to be bothered by noise. The bathroom was huge with an amazing walk-in shower. The hotel provided cosmetic cloths, which is a must-have as a traveling woman. There are two things I would recommend to improve the guest experience: 1) Add hooks behind the bathroom door so that one can hang up their robe or other items while showering; and 2) Improve the complimentary breakfast; the food was not too tasty. My experience and those of my fellow business travelers were so positive that we're considering having a larger business meeting at the hotel in the future.More</t>
   </si>
   <si>
-    <t>frenchrum</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r572310204-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -429,9 +575,6 @@
     <t>I live north of Dallas and needed to stay near a friend's hotel for her b-day weekend in Fort Worth and chose the Fairfield.  It was the perfect location and really better than I expected.  I loved the decor of the reception and bar.  Very Instagrammable.  Our bartender was great and made us some killer margaritas. Service was great at check-in, bar, check-out - personable and friendly.  The room was clean and the bed and pillows were very comfortable.  Nice big TV.  Room coffee was meh but I enjoyed breakfast (eggs, sausage, make your own waffle {really good}).  Valet is expensive but it's downtown... pretty much expected.</t>
   </si>
   <si>
-    <t>ajgardner93</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r570902461-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -445,9 +588,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hotel was great!  Drinks were excellent and the service was over the top!  The hotel is within walking distance for everything downtown,  great views from the rooms. Can't wait to stay there for the weekend again in the near future. </t>
-  </si>
-  <si>
-    <t>AMHarvie</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r565367276-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
@@ -472,9 +612,6 @@
 There is free breakfast in the morning until 10 am. They usually have scrambled eggs and cheese omelettes,...I stayed here while I was on business in Fort Worth. It is conveniently located right in downtown and you can walk to many restaurants, shops and attractions. The hotel itself is nicely decorated and it looks very new. I like the lounge in the lobby and the bar is modern. The reservation staff and the bar staff is always extremely nice and helpful. They always greet me when I come in and wish me a nice day when I leave. They have a small shop in the lobby for drinks, snacks and some sundries. However, there is an annoying smell that permeates the elevator area. It almost smells like pancake syrup. It’s not just in the morning— it’s all day long. The smell at times is overpowering. The room itself is a comfortable size with a king size bed and a desk if you need to do work. The closet is a little tight. There are two drawers in a dresser to put clothes away. The bed is very comfortable and there is a big screen television hanging on the wall for watching.  The bathroom is beautiful with a large, glass shower stall. The water pressure was disappointing, but I have found that in many hotels. There is a great working iron and board and a hair dryer in the room. There is free breakfast in the morning until 10 am. They usually have scrambled eggs and cheese omelettes, some sort of protein like bacon and or sausage, toast, bagels and other breakfast items. There is also coffee and juice. If I return to Fort Worth, I would definitely choose to stay at the Fairfield Inn Suites. More</t>
   </si>
   <si>
-    <t>Suzanne B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r563044006-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -493,9 +630,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t>Brenda M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r560221922-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -511,9 +645,6 @@
     <t xml:space="preserve">This Fairfield Inn is the size of a boutique hotel at 5 stories.   It’s located directly across from the convention center and in walking distance to several good restaurants.    The rooms are on the small size but well appointed and very clean.   The fitness room is very good.   Breakfast is better than expected.   It’s not a luxury hotel but is close.   There is no parking so valet is a necessity.   The service is good.  </t>
   </si>
   <si>
-    <t>dagongster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r558324192-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -532,9 +663,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>EcoZip-Gavin</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r558100417-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -550,9 +678,6 @@
     <t>This hotel has only recently opened. It's impressive on pretty much every conceivable front.  The rooms are large, spotless and comfortable.  The staff are universally friendly and go out of their way to help.  The inclusive breakfast is a real boon too. I was in town for 5 nights for a conference at the FW convention centre.  The hotel proved a great base and was considerably cheaper than the conference hotel. If I'm back in FW for work in the future I'll be back.</t>
   </si>
   <si>
-    <t>TXmomma99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r553636974-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -577,9 +702,6 @@
     <t>The only good things going for this place are the bar and the location.  Cleanliness is mediocre, rooms are very small, and lots of noise from outside. Staff was mixed.... a few people were very nice and helpful yet there were also a few that were not. However, the most disappointing part was paying well over$300 for a room and no breakfast at 9:30 in the morning when the state championships were happening. Thank goodness we were lucky that a coach demanded breakfast for her cheer squad or we would have been SOL. This place is not worth it. We'll try Omni next time.More</t>
   </si>
   <si>
-    <t>runrs</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r549106508-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -598,9 +720,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Brett M, General Manager at Fairfield Inn &amp; Suites Fort Worth Downtown/Convention Center, responded to this reviewResponded January 5, 2018</t>
   </si>
   <si>
@@ -610,9 +729,6 @@
     <t>This hotel was recently rebuilt from the cement structure out. They did a great job. Rooms are nice and roomy. Lobby bar with braedon the bartender was great. Location is perfect across street from convention center and close to downtown restaurants and bars. More</t>
   </si>
   <si>
-    <t>Kristin G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r548677917-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -631,9 +747,6 @@
     <t>It's brand new, has cool decor and ambience, good breakfast, comfy beds. It's a great location right by the convention center. The only thing to be aware of is that the only option for parking is $28/night. More</t>
   </si>
   <si>
-    <t>James Z</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r547190846-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -650,9 +763,6 @@
   </si>
   <si>
     <t>We took a train trip with 2 of our grandkids. Our stay was great ,the hotel gave us a great rate and more importantly a clean modern room all of the staff were very friendly. John at the front desk was great , Thank you all . Merry Christmas to this great staff More</t>
-  </si>
-  <si>
-    <t>dnasaur</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d12492984-r541374263-Fairfield_Inn_Suites_Fort_Worth_Downtown_Convention_Center-Fort_Worth_Texas.html</t>
@@ -1184,32 +1294,28 @@
       <c r="A2" t="n">
         <v>66388</v>
       </c>
-      <c r="B2" t="n">
-        <v>136949</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
       </c>
       <c r="K2" t="s">
         <v>49</v>
@@ -1229,9 +1335,7 @@
       <c r="P2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
@@ -1241,55 +1345,47 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66388</v>
       </c>
-      <c r="B3" t="n">
-        <v>136950</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>51</v>
@@ -1297,74 +1393,66 @@
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66388</v>
       </c>
-      <c r="B4" t="n">
-        <v>3158</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1376,132 +1464,130 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66388</v>
       </c>
-      <c r="B5" t="n">
-        <v>20777</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66388</v>
       </c>
-      <c r="B6" t="n">
-        <v>48336</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>4</v>
@@ -1510,60 +1596,56 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66388</v>
       </c>
-      <c r="B7" t="n">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1575,196 +1657,188 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="X7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66388</v>
       </c>
-      <c r="B8" t="n">
-        <v>1581</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" t="s">
-        <v>94</v>
-      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66388</v>
       </c>
-      <c r="B9" t="n">
-        <v>136951</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K9" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66388</v>
       </c>
-      <c r="B10" t="n">
-        <v>136952</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
         <v>109</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>110</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
         <v>111</v>
       </c>
-      <c r="K10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
@@ -1774,312 +1848,308 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="X10" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Y10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66388</v>
       </c>
-      <c r="B11" t="n">
-        <v>136953</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>118</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>119</v>
       </c>
-      <c r="K11" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" t="s">
-        <v>121</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="X11" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="Y11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66388</v>
       </c>
-      <c r="B12" t="n">
-        <v>46571</v>
-      </c>
-      <c r="C12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
         <v>124</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>125</v>
       </c>
-      <c r="J12" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" t="s">
-        <v>127</v>
-      </c>
-      <c r="L12" t="s">
-        <v>128</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66388</v>
       </c>
-      <c r="B13" t="n">
-        <v>136954</v>
-      </c>
-      <c r="C13" t="s">
-        <v>131</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>133</v>
       </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="O13" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>112</v>
+      </c>
+      <c r="X13" t="s">
+        <v>113</v>
+      </c>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66388</v>
       </c>
-      <c r="B14" t="n">
-        <v>136955</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>139</v>
       </c>
-      <c r="J14" t="s">
-        <v>140</v>
-      </c>
-      <c r="K14" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" t="s">
-        <v>142</v>
-      </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+      <c r="N14" t="s">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>112</v>
+      </c>
+      <c r="X14" t="s">
+        <v>113</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66388</v>
       </c>
-      <c r="B15" t="n">
-        <v>136956</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
         <v>144</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
-      </c>
-      <c r="K15" t="s">
-        <v>147</v>
-      </c>
-      <c r="L15" t="s">
-        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2090,115 +2160,119 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" t="s">
+        <v>113</v>
+      </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66388</v>
       </c>
-      <c r="B16" t="n">
-        <v>9597</v>
-      </c>
-      <c r="C16" t="s">
-        <v>150</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s">
-        <v>155</v>
-      </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>112</v>
+      </c>
+      <c r="X16" t="s">
+        <v>113</v>
+      </c>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66388</v>
       </c>
-      <c r="B17" t="n">
-        <v>14326</v>
-      </c>
-      <c r="C17" t="s">
-        <v>157</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="O17" t="s">
         <v>52</v>
@@ -2215,179 +2289,173 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66388</v>
       </c>
-      <c r="B18" t="n">
-        <v>136957</v>
-      </c>
-      <c r="C18" t="s">
-        <v>163</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>112</v>
+      </c>
+      <c r="X18" t="s">
+        <v>113</v>
+      </c>
       <c r="Y18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66388</v>
       </c>
-      <c r="B19" t="n">
-        <v>136958</v>
-      </c>
-      <c r="C19" t="s">
-        <v>170</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>112</v>
+      </c>
+      <c r="X19" t="s">
+        <v>113</v>
+      </c>
       <c r="Y19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66388</v>
       </c>
-      <c r="B20" t="n">
-        <v>136959</v>
-      </c>
-      <c r="C20" t="s">
-        <v>176</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
@@ -2395,133 +2463,121 @@
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>182</v>
-      </c>
-      <c r="X20" t="s">
-        <v>183</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66388</v>
       </c>
-      <c r="B21" t="n">
-        <v>79811</v>
-      </c>
-      <c r="C21" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="O21" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>193</v>
-      </c>
-      <c r="X21" t="s">
-        <v>194</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66388</v>
       </c>
-      <c r="B22" t="n">
-        <v>865</v>
-      </c>
-      <c r="C22" t="s">
-        <v>196</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>191</v>
-      </c>
-      <c r="O22" t="s">
-        <v>192</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
@@ -2531,58 +2587,50 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>193</v>
-      </c>
-      <c r="X22" t="s">
-        <v>194</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66388</v>
       </c>
-      <c r="B23" t="n">
-        <v>37182</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
@@ -2596,83 +2644,553 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>193</v>
-      </c>
-      <c r="X23" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66388</v>
       </c>
-      <c r="B24" t="n">
-        <v>136960</v>
-      </c>
-      <c r="C24" t="s">
-        <v>210</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>201</v>
+      </c>
+      <c r="J25" t="s">
+        <v>202</v>
+      </c>
+      <c r="K25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>199</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>210</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
+      <c r="J27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K27" t="s">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
         <v>217</v>
       </c>
-      <c r="X24" t="s">
+      <c r="J28" t="s">
         <v>218</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="K28" t="s">
         <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>210</v>
+      </c>
+      <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>221</v>
+      </c>
+      <c r="X28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>225</v>
+      </c>
+      <c r="J29" t="s">
+        <v>226</v>
+      </c>
+      <c r="K29" t="s">
+        <v>227</v>
+      </c>
+      <c r="L29" t="s">
+        <v>228</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>229</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>230</v>
+      </c>
+      <c r="X29" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>234</v>
+      </c>
+      <c r="J30" t="s">
+        <v>235</v>
+      </c>
+      <c r="K30" t="s">
+        <v>236</v>
+      </c>
+      <c r="L30" t="s">
+        <v>237</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>230</v>
+      </c>
+      <c r="X30" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J31" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" t="s">
+        <v>243</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>229</v>
+      </c>
+      <c r="O31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>230</v>
+      </c>
+      <c r="X31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66388</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>250</v>
+      </c>
+      <c r="O32" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>251</v>
+      </c>
+      <c r="X32" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
